--- a/Excel Files/Scenario 13/TC001/13.0 - TC9 - Upload Incoterms.xlsx
+++ b/Excel Files/Scenario 13/TC001/13.0 - TC9 - Upload Incoterms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Testbit_SR\git\tb-ttap-brivge-syazwan\Excel Files\Scenario 13\TC001\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Testbit_SR\git\tb-ttap-brivge-v2\Excel Files\Scenario 13\TC001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C12A332-B2AE-4A90-889A-8C5C25FAF623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7244296D-080F-44E6-A8DE-8ADE723907D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MGF060" sheetId="1" r:id="rId1"/>
@@ -146,7 +146,7 @@
     <t>TB Incoterms Code</t>
   </si>
   <si>
-    <t>TFINTCODET</t>
+    <t>TS4INTCODET</t>
   </si>
 </sst>
 </file>
@@ -738,7 +738,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -972,18 +972,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1125,18 +1125,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F93F641-41A3-4D23-AC2E-B62D1B63C1C3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393175C5-7490-4F4E-8ED0-13E8CC5ABDBF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393175C5-7490-4F4E-8ED0-13E8CC5ABDBF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F93F641-41A3-4D23-AC2E-B62D1B63C1C3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Excel Files/Scenario 13/TC001/13.0 - TC9 - Upload Incoterms.xlsx
+++ b/Excel Files/Scenario 13/TC001/13.0 - TC9 - Upload Incoterms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Testbit_SR\git\tb-ttap-brivge-v2\Excel Files\Scenario 13\TC001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7244296D-080F-44E6-A8DE-8ADE723907D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3EAE52F-285F-47D6-8289-533F2B96547D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -146,7 +146,7 @@
     <t>TB Incoterms Code</t>
   </si>
   <si>
-    <t>TS4INTCODET</t>
+    <t>S4INTCODET</t>
   </si>
 </sst>
 </file>
@@ -738,7 +738,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -972,18 +972,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1125,18 +1125,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393175C5-7490-4F4E-8ED0-13E8CC5ABDBF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F93F641-41A3-4D23-AC2E-B62D1B63C1C3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F93F641-41A3-4D23-AC2E-B62D1B63C1C3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393175C5-7490-4F4E-8ED0-13E8CC5ABDBF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Excel Files/Scenario 13/TC001/13.0 - TC9 - Upload Incoterms.xlsx
+++ b/Excel Files/Scenario 13/TC001/13.0 - TC9 - Upload Incoterms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Testbit_SR\git\tb-ttap-brivge-v2\Excel Files\Scenario 13\TC001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3EAE52F-285F-47D6-8289-533F2B96547D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F4F221-CF93-4722-8AF2-7FD05CA2A578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -146,7 +146,7 @@
     <t>TB Incoterms Code</t>
   </si>
   <si>
-    <t>S4INTCODET</t>
+    <t>S6INTCODET</t>
   </si>
 </sst>
 </file>
@@ -738,7 +738,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -972,18 +972,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1125,18 +1125,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F93F641-41A3-4D23-AC2E-B62D1B63C1C3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393175C5-7490-4F4E-8ED0-13E8CC5ABDBF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393175C5-7490-4F4E-8ED0-13E8CC5ABDBF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F93F641-41A3-4D23-AC2E-B62D1B63C1C3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
